--- a/docs/运维文档_部署清单/恒逸物流软硬件配置及帐号密码清单.xlsx
+++ b/docs/运维文档_部署清单/恒逸物流软硬件配置及帐号密码清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="软件硬件部署清单" sheetId="4" r:id="rId1"/>
@@ -97,9 +97,6 @@
 2、Apache Tomcat  6.0</t>
   </si>
   <si>
-    <t>hTmsAbc#1356</t>
-  </si>
-  <si>
     <t>80\8080\8443</t>
   </si>
   <si>
@@ -115,16 +112,10 @@
     <t>192.168.0.23</t>
   </si>
   <si>
-    <t>htms1234</t>
-  </si>
-  <si>
     <t>CPU:4C；内存：16GB；硬盘：300G</t>
   </si>
   <si>
     <t>CPU:4C；内存：16GB；硬盘：2000G</t>
-  </si>
-  <si>
-    <t>192.168.0.43</t>
   </si>
   <si>
     <t>tomcat安装路径</t>
@@ -203,19 +194,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>192.168.0.86</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>htms1234</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>htms1356</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.0.27</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.86</t>
+    <t>192.168.0.23</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>htms1234</t>
+    <t>hTmsAbc#1356</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>htms1356</t>
+    <t>192.168.0.43</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2028,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1">
@@ -2058,41 +2061,41 @@
         <v>18</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="78" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>20</v>
@@ -2107,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -2119,14 +2122,14 @@
         <v>16</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -2137,7 +2140,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
@@ -2149,7 +2152,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
@@ -2188,23 +2191,23 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2220,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2233,13 +2236,13 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2249,27 +2252,27 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>1521</v>
@@ -2278,24 +2281,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2315,7 @@
   <dimension ref="A3:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -2323,34 +2326,34 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="26"/>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1">
